--- a/Identifying existing FR.xlsx
+++ b/Identifying existing FR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wvw/Dropbox/research/papers/Embed4LBD (AIME 2025)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wvw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61B894-FC8C-2840-AB74-A101B9FF8ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6967F69-6A52-E24F-9991-90F2BA980470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="760" windowWidth="34220" windowHeight="19760" activeTab="3" xr2:uid="{4748D013-EB9B-1344-8A7C-839CD6DFA9BD}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="34220" windowHeight="19760" xr2:uid="{4748D013-EB9B-1344-8A7C-839CD6DFA9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>BiOBERT1/-1 -</t>
   </si>
@@ -77,9 +77,6 @@
     <t>PubmedBERT1/-3 -</t>
   </si>
   <si>
-    <t>PubmedBERT11-4 -</t>
-  </si>
-  <si>
     <t>PubmedBERT1/Sum</t>
   </si>
   <si>
@@ -242,14 +239,20 @@
     <t>avg</t>
   </si>
   <si>
-    <t>(results from other sheets, rounded above)</t>
+    <t>(see above for rounding)</t>
+  </si>
+  <si>
+    <t>references from other sheets</t>
+  </si>
+  <si>
+    <t>PubmedBERT1-4 -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +265,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,7 +309,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,304 +656,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F91B2D5-C637-3140-A31B-5F564E6F28B8}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="7">
         <v>0.7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="T1" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:I6" si="0">ROUND(B10,2)</f>
-        <v>0.92</v>
+        <f t="shared" ref="B4:G4" si="0">ROUND(B15,2)</f>
+        <v>0.76</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(H15,2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4" si="1">ROUND(I15,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4">
+        <f>ROUND(K15,2)</f>
+        <v>0.92</v>
+      </c>
+      <c r="L4">
+        <f>ROUND(L15,2)</f>
         <v>0.1</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="M4">
+        <f>ROUND(M15,2)</f>
         <v>0.92</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="N4">
+        <f>ROUND(N15,2)</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f>ROUND(O15,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="P4">
+        <f>ROUND(P15,2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>ROUND(Q15,2)</f>
+        <v>0.92</v>
+      </c>
+      <c r="R4" s="6">
+        <f>ROUND(R15,2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:AA4" si="2">ROUND(T15,2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.82</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="Z4">
+        <f>ROUND(Z15,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4" si="3">ROUND(AA15,2)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>ROUND(B16,2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(C16,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D5">
+        <f>ROUND(D16,2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="E5">
+        <f>ROUND(E16,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="F5">
+        <f>ROUND(F16,2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(G16,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:I5" si="4">ROUND(H16,2)</f>
+        <v>0.72</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5">
+        <f>ROUND(K16,2)</f>
         <v>0.88</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f>ROUND(L16,2)</f>
         <v>0.08</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="M5">
+        <f>ROUND(M16,2)</f>
         <v>0.88</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="N5">
+        <f>ROUND(N16,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="O5">
+        <f>ROUND(O16,2)</f>
         <v>0.92</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="P5">
+        <f>ROUND(P16,2)</f>
         <v>0.09</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="6">
+        <f>ROUND(Q16,2)</f>
         <v>0.89</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="R5" s="6">
+        <f>ROUND(R16,2)</f>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f t="shared" ref="T5:AA5" si="5">ROUND(T16,2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>0.79</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>0.73</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:I6" si="6">ROUND(B17,2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="6"/>
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6">
+        <f>ROUND(K17,2)</f>
         <v>0.64</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f>ROUND(L17,2)</f>
         <v>0.06</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="M6">
+        <f>ROUND(M17,2)</f>
         <v>0.64</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="N6">
+        <f>ROUND(N17,2)</f>
         <v>0.06</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="O6">
+        <f>ROUND(O17,2)</f>
         <v>0.73</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="P6">
+        <f>ROUND(P17,2)</f>
         <v>0.06</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="Q6" s="6">
+        <f>ROUND(Q17,2)</f>
         <v>0.67</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="R6" s="6">
+        <f>ROUND(R17,2)</f>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f t="shared" ref="T6:AA6" si="7">ROUND(T17,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>0.47</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="J7" s="1"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <f>'chemical-gene'!B12</f>
+        <v>0.7571</v>
+      </c>
+      <c r="C15">
+        <f>'chemical-gene'!C12</f>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="D15">
+        <f>'disease-chemical'!B12</f>
+        <v>0.7571</v>
+      </c>
+      <c r="E15">
+        <f>'disease-chemical'!C12</f>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <f>'disease-gene'!B12</f>
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="G15">
+        <f>'disease-gene'!C12</f>
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(B15,D15,F15)</f>
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(C15,E15,G15)</f>
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15">
         <f>'chemical-gene'!G12</f>
         <v>0.91859999999999997</v>
       </c>
-      <c r="C10">
+      <c r="L15">
         <f>'chemical-gene'!H12</f>
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="M15">
         <f>'disease-chemical'!G12</f>
         <v>0.91549999999999998</v>
       </c>
-      <c r="E10">
+      <c r="N15">
         <f>'disease-chemical'!H12</f>
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="F10">
+      <c r="O15">
         <f>'disease-gene'!G12</f>
         <v>0.93069999999999997</v>
       </c>
-      <c r="G10">
+      <c r="P15">
         <f>'disease-gene'!H12</f>
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="H10">
-        <f>AVERAGE(B10,D10,F10)</f>
+      <c r="Q15">
+        <f>AVERAGE(K15,M15,O15)</f>
         <v>0.92159999999999986</v>
       </c>
-      <c r="I10">
-        <f>AVERAGE(C10,E10,G10)</f>
+      <c r="R15">
+        <f>AVERAGE(L15,N15,P15)</f>
         <v>9.8299999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+      <c r="T15">
+        <f>'chemical-gene'!M12</f>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="U15">
+        <f>'chemical-gene'!N12</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="V15">
+        <f>'disease-chemical'!L12</f>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="W15">
+        <f>'disease-chemical'!M12</f>
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="X15">
+        <f>'disease-gene'!M12</f>
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="Y15">
+        <f>'disease-gene'!N12</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="Z15">
+        <f>AVERAGE(T15,V15,X15)</f>
+        <v>0.79236666666666666</v>
+      </c>
+      <c r="AA15">
+        <f>AVERAGE(U15,W15,Y15)</f>
+        <v>8.3833333333333329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <f>'chemical-gene'!B6</f>
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="C16">
+        <f>'chemical-gene'!C6</f>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <f>'disease-chemical'!B6</f>
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="E16">
+        <f>'disease-chemical'!C6</f>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F16">
+        <f>'disease-gene'!B6</f>
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="G16">
+        <f>'disease-gene'!C6</f>
+        <v>8.14E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:I17" si="8">AVERAGE(B16,D16,F16)</f>
+        <v>0.71623333333333328</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>7.8733333333333336E-2</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16">
         <f>'chemical-gene'!G6</f>
         <v>0.87609999999999999</v>
       </c>
-      <c r="C11">
+      <c r="L16">
         <f>'chemical-gene'!H6</f>
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="D11">
+      <c r="M16">
         <f>'disease-chemical'!G6</f>
         <v>0.87609999999999999</v>
       </c>
-      <c r="E11">
+      <c r="N16">
         <f>'disease-chemical'!H6</f>
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="F11">
+      <c r="O16">
         <f>'disease-gene'!G6</f>
         <v>0.91820000000000002</v>
       </c>
-      <c r="G11">
+      <c r="P16">
         <f>'disease-gene'!H6</f>
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H12" si="1">AVERAGE(B11,D11,F11)</f>
+      <c r="Q16">
+        <f>AVERAGE(K16,M16,O16)</f>
         <v>0.89013333333333333</v>
       </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I12" si="2">AVERAGE(C11,E11,G11)</f>
+      <c r="R16">
+        <f t="shared" ref="R16:R17" si="9">AVERAGE(L16,N16,P16)</f>
         <v>8.1666666666666665E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="T16">
+        <f>'chemical-gene'!M6</f>
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="U16">
+        <f>'chemical-gene'!N6</f>
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="V16">
+        <f>'disease-chemical'!L6</f>
+        <v>0.7873</v>
+      </c>
+      <c r="W16">
+        <f>'disease-chemical'!M6</f>
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="X16">
+        <f>'disease-gene'!M6</f>
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="Y16">
+        <f>'disease-gene'!N6</f>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="Z16">
+        <f>AVERAGE(T16,V16,X16)</f>
+        <v>0.73439999999999994</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16:AA17" si="10">AVERAGE(U16,W16,Y16)</f>
+        <v>7.7566666666666673E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B17">
+        <f>'chemical-gene'!B19</f>
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="C17">
+        <f>'chemical-gene'!C19</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="D17">
+        <f>'disease-chemical'!B19</f>
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="E17">
+        <f>'disease-chemical'!C19</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="F17">
+        <f>'disease-gene'!B19</f>
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="G17">
+        <f>'disease-gene'!C19</f>
+        <v>3.8E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>0.47163333333333335</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>4.3266666666666669E-2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17">
         <f>'chemical-gene'!G19</f>
         <v>0.64129999999999998</v>
       </c>
-      <c r="C12">
+      <c r="L17">
         <f>'chemical-gene'!H19</f>
         <v>6.3E-2</v>
       </c>
-      <c r="D12">
+      <c r="M17">
         <f>'disease-chemical'!G19</f>
         <v>0.64129999999999998</v>
       </c>
-      <c r="E12">
+      <c r="N17">
         <f>'disease-chemical'!H19</f>
         <v>6.3E-2</v>
       </c>
-      <c r="F12">
+      <c r="O17">
         <f>'disease-gene'!G19</f>
         <v>0.72799999999999998</v>
       </c>
-      <c r="G12">
+      <c r="P17">
         <f>'disease-gene'!H19</f>
         <v>6.3E-2</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="11">AVERAGE(K17,M17,O17)</f>
         <v>0.67020000000000002</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="R17">
+        <f t="shared" si="9"/>
         <v>6.3E-2</v>
       </c>
+      <c r="T17">
+        <f>'chemical-gene'!M19</f>
+        <v>0.6028</v>
+      </c>
+      <c r="U17">
+        <f>'chemical-gene'!N19</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="V17">
+        <f>'disease-chemical'!L19</f>
+        <v>0.6028</v>
+      </c>
+      <c r="W17">
+        <f>'disease-chemical'!M19</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="X17">
+        <f>'disease-gene'!M19</f>
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="Y17">
+        <f>'disease-gene'!N19</f>
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ref="Z17" si="12">AVERAGE(T17,V17,X17)</f>
+        <v>0.5597333333333333</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>6.3266666666666665E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="30">
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -942,7 +1679,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,52 +1695,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>0.6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>0.7</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
-      <c r="K1" s="4">
+      <c r="K1" s="5">
         <v>0.8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1046,7 +1783,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0.85419999999999996</v>
@@ -1055,7 +1792,7 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1">
         <v>0.72309999999999997</v>
@@ -1104,7 +1841,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>0.87609999999999999</v>
@@ -1113,7 +1850,7 @@
         <v>8.2699999999999996E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1">
         <v>0.77829999999999999</v>
@@ -1133,7 +1870,7 @@
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>0.85929999999999995</v>
@@ -1142,7 +1879,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="1">
         <v>0.79710000000000003</v>
@@ -1162,7 +1899,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
         <v>0.8871</v>
@@ -1191,7 +1928,7 @@
         <v>8.3500000000000005E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>0.89059999999999995</v>
@@ -1200,7 +1937,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1">
         <v>0.79810000000000003</v>
@@ -1229,7 +1966,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="1">
         <v>0.81479999999999997</v>
@@ -1240,7 +1977,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1">
         <v>0.7571</v>
@@ -1249,7 +1986,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
         <v>0.91859999999999997</v>
@@ -1258,7 +1995,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="1">
         <v>0.82030000000000003</v>
@@ -1269,7 +2006,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.73229999999999995</v>
@@ -1278,7 +2015,7 @@
         <v>8.8200000000000001E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>0.9153</v>
@@ -1287,7 +2024,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
         <v>0.80920000000000003</v>
@@ -1307,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1316,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1336,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1345,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -1365,7 +2102,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>0.60740000000000005</v>
@@ -1374,7 +2111,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1">
         <v>0.5978</v>
@@ -1394,7 +2131,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1">
         <v>0.64129999999999998</v>
@@ -1414,7 +2151,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1423,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1432,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -1443,7 +2180,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>7.1999999999999995E-2</v>
@@ -1452,7 +2189,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1">
         <v>4.2599999999999999E-2</v>
@@ -1461,7 +2198,7 @@
         <v>0.44440000000000002</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -1472,7 +2209,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1">
         <v>0.19889999999999999</v>
@@ -1481,7 +2218,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1490,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -1501,7 +2238,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>5.7000000000000002E-3</v>
@@ -1510,7 +2247,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1">
         <v>5.2600000000000001E-2</v>
@@ -1519,7 +2256,7 @@
         <v>0.29409999999999997</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -1543,7 +2280,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,49 +2294,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>0.6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5">
         <v>0.7</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="K1" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="K1" s="5">
         <v>0.8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1633,7 +2370,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0.72189999999999999</v>
@@ -1642,7 +2379,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0.84519999999999995</v>
@@ -1651,7 +2388,7 @@
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
         <v>0.72309999999999997</v>
@@ -1691,7 +2428,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>0.72829999999999995</v>
@@ -1700,7 +2437,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>0.87609999999999999</v>
@@ -1709,7 +2446,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1">
         <v>0.7873</v>
@@ -1720,7 +2457,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>0.72660000000000002</v>
@@ -1729,7 +2466,7 @@
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>0.85709999999999997</v>
@@ -1738,7 +2475,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1">
         <v>0.7671</v>
@@ -1749,7 +2486,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>0.70279999999999998</v>
@@ -1758,7 +2495,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
         <v>0.87709999999999999</v>
@@ -1778,7 +2515,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>0.74539999999999995</v>
@@ -1787,7 +2524,7 @@
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>0.89970000000000006</v>
@@ -1796,7 +2533,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="1">
         <v>0.79410000000000003</v>
@@ -1825,7 +2562,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1">
         <v>0.82579999999999998</v>
@@ -1836,7 +2573,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0.7571</v>
@@ -1845,7 +2582,7 @@
         <v>7.8399999999999997E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
         <v>0.91549999999999998</v>
@@ -1854,7 +2591,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1">
         <v>0.82030000000000003</v>
@@ -1865,7 +2602,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0.73199999999999998</v>
@@ -1874,7 +2611,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>0.90529999999999999</v>
@@ -1883,7 +2620,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1">
         <v>0.80320000000000003</v>
@@ -1894,7 +2631,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1903,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1912,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1923,7 +2660,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1932,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1941,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1952,7 +2689,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>0.52490000000000003</v>
@@ -1961,7 +2698,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>0.60740000000000005</v>
@@ -1970,7 +2707,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1">
         <v>0.5978</v>
@@ -1990,7 +2727,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1">
         <v>0.64129999999999998</v>
@@ -2010,7 +2747,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2019,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -2028,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -2039,7 +2776,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>4.82E-2</v>
@@ -2048,7 +2785,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1">
         <v>4.2599999999999999E-2</v>
@@ -2057,7 +2794,7 @@
         <v>0.44440000000000002</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -2068,7 +2805,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>0.1089</v>
@@ -2077,7 +2814,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -2086,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -2097,7 +2834,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>5.7000000000000002E-3</v>
@@ -2106,7 +2843,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1">
         <v>5.2600000000000001E-2</v>
@@ -2115,7 +2852,7 @@
         <v>0.29409999999999997</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -2138,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2342F-26DE-BA4B-92B9-8891F0909A99}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,54 +2891,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>0.6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="5">
         <v>0.7</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="K1" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="K1" s="5">
         <v>0.8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>0.65180000000000005</v>
@@ -2210,7 +2947,7 @@
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1">
         <v>0.879</v>
@@ -2219,7 +2956,7 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1">
         <v>0.59260000000000002</v>
@@ -2230,7 +2967,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>0.68740000000000001</v>
@@ -2239,7 +2976,7 @@
         <v>7.0099999999999996E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0.90129999999999999</v>
@@ -2248,7 +2985,7 @@
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>0.61629999999999996</v>
@@ -2259,7 +2996,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>0.70369999999999999</v>
@@ -2268,7 +3005,7 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1">
         <v>0.90210000000000001</v>
@@ -2277,7 +3014,7 @@
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="1">
         <v>0.59140000000000004</v>
@@ -2288,7 +3025,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>0.71209999999999996</v>
@@ -2297,7 +3034,7 @@
         <v>8.14E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>0.91820000000000002</v>
@@ -2306,7 +3043,7 @@
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1">
         <v>0.63759999999999994</v>
@@ -2317,7 +3054,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>0.70309999999999995</v>
@@ -2326,7 +3063,7 @@
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>0.90710000000000002</v>
@@ -2335,7 +3072,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1">
         <v>0.626</v>
@@ -2346,7 +3083,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>0.69340000000000002</v>
@@ -2375,7 +3112,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>0.72050000000000003</v>
@@ -2384,7 +3121,7 @@
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>0.92569999999999997</v>
@@ -2393,7 +3130,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1">
         <v>0.72619999999999996</v>
@@ -2404,7 +3141,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>0.72130000000000005</v>
@@ -2433,7 +3170,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>0.73160000000000003</v>
@@ -2442,7 +3179,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1">
         <v>0.93069999999999997</v>
@@ -2451,7 +3188,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1">
         <v>0.73650000000000004</v>
@@ -2462,7 +3199,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>0.70720000000000005</v>
@@ -2471,7 +3208,7 @@
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>0.93200000000000005</v>
@@ -2480,7 +3217,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
         <v>0.70720000000000005</v>
@@ -2491,7 +3228,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2500,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2509,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2520,7 +3257,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2529,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -2538,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2558,7 +3295,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>0.70599999999999996</v>
@@ -2567,7 +3304,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1">
         <v>0.45229999999999998</v>
@@ -2578,7 +3315,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>0.34910000000000002</v>
@@ -2607,7 +3344,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2616,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -2625,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -2636,7 +3373,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2645,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>5.74E-2</v>
@@ -2654,7 +3391,7 @@
         <v>0.125</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -2665,7 +3402,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>0.13639999999999999</v>
@@ -2674,7 +3411,7 @@
         <v>0.17050000000000001</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -2683,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -2694,7 +3431,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2703,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1">
         <v>3.7999999999999999E-2</v>
@@ -2712,7 +3449,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
